--- a/docroot/file/import_SalaryRange_template.xlsx
+++ b/docroot/file/import_SalaryRange_template.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{C77BAB05-454B-4020-91A0-2BC6B9436C38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="1800" tabRatio="798" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" tabRatio="798"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,51 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Employee Code</t>
-  </si>
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Working Start Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Probation End Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Acting End Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Salary Amount</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Chief Employee Code</t>
-  </si>
-  <si>
-    <t>Organization Code</t>
-  </si>
-  <si>
-    <t>Position Code</t>
-  </si>
-  <si>
-    <t>Dotline Code</t>
-  </si>
-  <si>
-    <t>Has Second Line</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Level ID</t>
+  </si>
+  <si>
+    <t>Level Name</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Minimum Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -101,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -111,6 +91,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -173,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -225,7 +223,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -419,28 +417,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALL1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2"/>
-    <col min="2" max="2" width="34.42578125" style="2"/>
+    <col min="1" max="1" width="14.42578125" style="10"/>
+    <col min="2" max="2" width="34.42578125" style="10"/>
     <col min="3" max="3" width="33" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" style="2"/>
     <col min="9" max="9" width="13.7109375" style="2"/>
@@ -453,45 +451,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
